--- a/Figures/input_metadata.xlsx
+++ b/Figures/input_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradenlimb/CloudStation/Sustainability Science:Consulting/2024-10 RuFaS/SS-RuFaS Github/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2BBE1C-7A22-BB45-B80A-B596873ED2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F34C507-265E-C54E-A33D-E11F3982C816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="-17880" windowWidth="27640" windowHeight="18420" xr2:uid="{127153A3-1544-604B-A143-CB9F691F2151}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{127153A3-1544-604B-A143-CB9F691F2151}"/>
   </bookViews>
   <sheets>
     <sheet name="use" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
   <si>
     <t>filename</t>
   </si>
@@ -214,13 +214,64 @@
   </si>
   <si>
     <t>Irrigation</t>
+  </si>
+  <si>
+    <t>Crop</t>
+  </si>
+  <si>
+    <t>Corn Grain Price Received</t>
+  </si>
+  <si>
+    <t>$/bushel</t>
+  </si>
+  <si>
+    <t>Alfalfa Hay Price Received</t>
+  </si>
+  <si>
+    <t>Hay Excluding Alfalfa Price Received</t>
+  </si>
+  <si>
+    <t>crops_corn-grain-price-received_dollar-per-bushel</t>
+  </si>
+  <si>
+    <t>crops_hay-alfalfa-price-received_dollar-per-ton</t>
+  </si>
+  <si>
+    <t>crops_hay-excluding-alfalfa-price-received_dollar-per-ton</t>
+  </si>
+  <si>
+    <t>crops_hay-price-received_dollar-per-ton</t>
+  </si>
+  <si>
+    <t>crops_rye-price-received_dollar-per-bushel</t>
+  </si>
+  <si>
+    <t>crops_soybean-price-received_dollar-per-bushel</t>
+  </si>
+  <si>
+    <t>crops_winter-wheat-price-received_dollar-per-bushel</t>
+  </si>
+  <si>
+    <t>Hay Price Received</t>
+  </si>
+  <si>
+    <t>Rye Price Received</t>
+  </si>
+  <si>
+    <t>Winter Wheat Price Received</t>
+  </si>
+  <si>
+    <t>Soybean Price Received</t>
+  </si>
+  <si>
+    <t>$/ton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +282,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -255,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -263,6 +320,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500D074E-F5ED-B74B-A2AF-F5BE37C832E1}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,16 +689,86 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -647,17 +778,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D15EF21-6BF3-644F-9627-E17958E414C7}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="58.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -676,182 +807,182 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>59</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>19</v>
@@ -859,13 +990,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>19</v>
@@ -873,13 +1004,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>19</v>
@@ -887,13 +1018,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
@@ -901,113 +1032,211 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>43</v>
       </c>
     </row>
